--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam4-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H2">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J2">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N2">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="O2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q2">
-        <v>0.08156116453988889</v>
+        <v>0.1590815490046667</v>
       </c>
       <c r="R2">
-        <v>0.734050480859</v>
+        <v>1.431733941042</v>
       </c>
       <c r="S2">
-        <v>0.0003166074333107816</v>
+        <v>0.0005195896796248704</v>
       </c>
       <c r="T2">
-        <v>0.0003166074333107816</v>
+        <v>0.0005195896796248703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H3">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J3">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q3">
-        <v>0.3505080119083333</v>
+        <v>0.6494955480250001</v>
       </c>
       <c r="R3">
-        <v>3.154572107175</v>
+        <v>5.845459932225</v>
       </c>
       <c r="S3">
-        <v>0.001360616202958809</v>
+        <v>0.002121372251072244</v>
       </c>
       <c r="T3">
-        <v>0.001360616202958809</v>
+        <v>0.002121372251072244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7497096666666666</v>
+        <v>1.389221</v>
       </c>
       <c r="H4">
-        <v>2.249129</v>
+        <v>4.167663</v>
       </c>
       <c r="I4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="J4">
-        <v>0.1942187779702391</v>
+        <v>0.2910270461264192</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N4">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="O4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q4">
-        <v>0.610592541307111</v>
+        <v>88.29448848631401</v>
       </c>
       <c r="R4">
-        <v>5.495332871763999</v>
+        <v>794.6503963768261</v>
       </c>
       <c r="S4">
-        <v>0.002370222867617422</v>
+        <v>0.2883860841957221</v>
       </c>
       <c r="T4">
-        <v>0.002370222867617422</v>
+        <v>0.288386084195722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7497096666666666</v>
+        <v>2.202155333333334</v>
       </c>
       <c r="H5">
-        <v>2.249129</v>
+        <v>6.606466000000001</v>
       </c>
       <c r="I5">
-        <v>0.1942187779702391</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J5">
-        <v>0.1942187779702391</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>65.34528366666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N5">
-        <v>196.035851</v>
+        <v>0.343534</v>
       </c>
       <c r="O5">
-        <v>0.9791603749844043</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P5">
-        <v>0.9791603749844044</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q5">
-        <v>48.98999083597543</v>
+        <v>0.2521717434271112</v>
       </c>
       <c r="R5">
-        <v>440.9099175237789</v>
+        <v>2.269545690844001</v>
       </c>
       <c r="S5">
-        <v>0.1901713314663521</v>
+        <v>0.0008236394239151772</v>
       </c>
       <c r="T5">
-        <v>0.1901713314663521</v>
+        <v>0.000823639423915177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I6">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J6">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1087903333333333</v>
+        <v>0.467525</v>
       </c>
       <c r="N6">
-        <v>0.326371</v>
+        <v>1.402575</v>
       </c>
       <c r="O6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q6">
-        <v>0.2395732127651111</v>
+        <v>1.029562672216667</v>
       </c>
       <c r="R6">
-        <v>2.156158914886</v>
+        <v>9.266064049950002</v>
       </c>
       <c r="S6">
-        <v>0.0009299850046462192</v>
+        <v>0.003362741577246588</v>
       </c>
       <c r="T6">
-        <v>0.0009299850046462192</v>
+        <v>0.003362741577246588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>6.606466000000001</v>
       </c>
       <c r="I7">
-        <v>0.5704873989984275</v>
+        <v>0.461328155686921</v>
       </c>
       <c r="J7">
-        <v>0.5704873989984274</v>
+        <v>0.4613281556869209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.467525</v>
+        <v>63.556834</v>
       </c>
       <c r="N7">
-        <v>1.402575</v>
+        <v>190.670502</v>
       </c>
       <c r="O7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q7">
-        <v>1.029562672216667</v>
+        <v>139.9620209628814</v>
       </c>
       <c r="R7">
-        <v>9.266064049950002</v>
+        <v>1259.658188665932</v>
       </c>
       <c r="S7">
-        <v>0.003996598098151095</v>
+        <v>0.4571417746857593</v>
       </c>
       <c r="T7">
-        <v>0.003996598098151095</v>
+        <v>0.4571417746857592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.202155333333334</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H8">
-        <v>6.606466000000001</v>
+        <v>0.451853</v>
       </c>
       <c r="I8">
-        <v>0.5704873989984275</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J8">
-        <v>0.5704873989984274</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8144386666666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N8">
-        <v>2.443316</v>
+        <v>0.343534</v>
       </c>
       <c r="O8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q8">
-        <v>1.793520453472889</v>
+        <v>0.01724742983355556</v>
       </c>
       <c r="R8">
-        <v>16.141684081256</v>
+        <v>0.155226868502</v>
       </c>
       <c r="S8">
-        <v>0.00696216036845241</v>
+        <v>5.633328690624374E-05</v>
       </c>
       <c r="T8">
-        <v>0.00696216036845241</v>
+        <v>5.633328690624373E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.202155333333334</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H9">
-        <v>6.606466000000001</v>
+        <v>0.451853</v>
       </c>
       <c r="I9">
-        <v>0.5704873989984275</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J9">
-        <v>0.5704873989984274</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.34528366666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N9">
-        <v>196.035851</v>
+        <v>1.402575</v>
       </c>
       <c r="O9">
-        <v>0.9791603749844043</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P9">
-        <v>0.9791603749844044</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q9">
-        <v>143.9004649347296</v>
+        <v>0.07041752460833334</v>
       </c>
       <c r="R9">
-        <v>1295.104184412566</v>
+        <v>0.6337577214750001</v>
       </c>
       <c r="S9">
-        <v>0.5585986555271778</v>
+        <v>0.0002299966229908097</v>
       </c>
       <c r="T9">
-        <v>0.5585986555271777</v>
+        <v>0.0002299966229908097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.07599399999999999</v>
+        <v>0.1506176666666667</v>
       </c>
       <c r="H10">
-        <v>0.227982</v>
+        <v>0.451853</v>
       </c>
       <c r="I10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="J10">
-        <v>0.01968690343649077</v>
+        <v>0.03155280162368235</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1087903333333333</v>
+        <v>63.556834</v>
       </c>
       <c r="N10">
-        <v>0.326371</v>
+        <v>190.670502</v>
       </c>
       <c r="O10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q10">
-        <v>0.008267412591333333</v>
+        <v>9.572782037800668</v>
       </c>
       <c r="R10">
-        <v>0.074406713322</v>
+        <v>86.155038340206</v>
       </c>
       <c r="S10">
-        <v>3.209277718666141E-05</v>
+        <v>0.03126647171378531</v>
       </c>
       <c r="T10">
-        <v>3.209277718666142E-05</v>
+        <v>0.0312664717137853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.07599399999999999</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H11">
-        <v>0.227982</v>
+        <v>3.094553</v>
       </c>
       <c r="I11">
-        <v>0.01968690343649077</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J11">
-        <v>0.01968690343649077</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.467525</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N11">
-        <v>1.402575</v>
+        <v>0.343534</v>
       </c>
       <c r="O11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q11">
-        <v>0.03552909485</v>
+        <v>0.1181204633668889</v>
       </c>
       <c r="R11">
-        <v>0.31976185365</v>
+        <v>1.063084170302</v>
       </c>
       <c r="S11">
-        <v>0.0001379182800021498</v>
+        <v>0.0003858032191787534</v>
       </c>
       <c r="T11">
-        <v>0.0001379182800021498</v>
+        <v>0.0003858032191787534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07599399999999999</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H12">
-        <v>0.227982</v>
+        <v>3.094553</v>
       </c>
       <c r="I12">
-        <v>0.01968690343649077</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J12">
-        <v>0.01968690343649077</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8144386666666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N12">
-        <v>2.443316</v>
+        <v>1.402575</v>
       </c>
       <c r="O12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q12">
-        <v>0.06189245203466666</v>
+        <v>0.4822602971083333</v>
       </c>
       <c r="R12">
-        <v>0.5570320683119999</v>
+        <v>4.340342673975</v>
       </c>
       <c r="S12">
-        <v>0.0002402566281458978</v>
+        <v>0.001575151077155798</v>
       </c>
       <c r="T12">
-        <v>0.0002402566281458978</v>
+        <v>0.001575151077155798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07599399999999999</v>
+        <v>1.031517666666667</v>
       </c>
       <c r="H13">
-        <v>0.227982</v>
+        <v>3.094553</v>
       </c>
       <c r="I13">
-        <v>0.01968690343649077</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="J13">
-        <v>0.01968690343649077</v>
+        <v>0.2160919965629775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.34528366666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N13">
-        <v>196.035851</v>
+        <v>190.670502</v>
       </c>
       <c r="O13">
-        <v>0.9791603749844043</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P13">
-        <v>0.9791603749844044</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q13">
-        <v>4.965849486964665</v>
+        <v>65.55999710840067</v>
       </c>
       <c r="R13">
-        <v>44.692645382682</v>
+        <v>590.039973975606</v>
       </c>
       <c r="S13">
-        <v>0.01927663575115606</v>
+        <v>0.214131042266643</v>
       </c>
       <c r="T13">
-        <v>0.01927663575115606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.8322706666666666</v>
-      </c>
-      <c r="H14">
-        <v>2.496812</v>
-      </c>
-      <c r="I14">
-        <v>0.2156069195948426</v>
-      </c>
-      <c r="J14">
-        <v>0.2156069195948426</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.1087903333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.326371</v>
-      </c>
-      <c r="O14">
-        <v>0.001630158713897873</v>
-      </c>
-      <c r="P14">
-        <v>0.001630158713897873</v>
-      </c>
-      <c r="Q14">
-        <v>0.09054300325022221</v>
-      </c>
-      <c r="R14">
-        <v>0.814887029252</v>
-      </c>
-      <c r="S14">
-        <v>0.0003514734987542107</v>
-      </c>
-      <c r="T14">
-        <v>0.0003514734987542107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.8322706666666666</v>
-      </c>
-      <c r="H15">
-        <v>2.496812</v>
-      </c>
-      <c r="I15">
-        <v>0.2156069195948426</v>
-      </c>
-      <c r="J15">
-        <v>0.2156069195948426</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.467525</v>
-      </c>
-      <c r="N15">
-        <v>1.402575</v>
-      </c>
-      <c r="O15">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="P15">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="Q15">
-        <v>0.3891073434333333</v>
-      </c>
-      <c r="R15">
-        <v>3.5019660909</v>
-      </c>
-      <c r="S15">
-        <v>0.00151045265208976</v>
-      </c>
-      <c r="T15">
-        <v>0.00151045265208976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.8322706666666666</v>
-      </c>
-      <c r="H16">
-        <v>2.496812</v>
-      </c>
-      <c r="I16">
-        <v>0.2156069195948426</v>
-      </c>
-      <c r="J16">
-        <v>0.2156069195948426</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.8144386666666666</v>
-      </c>
-      <c r="N16">
-        <v>2.443316</v>
-      </c>
-      <c r="O16">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="P16">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="Q16">
-        <v>0.6778334120657777</v>
-      </c>
-      <c r="R16">
-        <v>6.100500708591999</v>
-      </c>
-      <c r="S16">
-        <v>0.00263124120428023</v>
-      </c>
-      <c r="T16">
-        <v>0.00263124120428023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.8322706666666666</v>
-      </c>
-      <c r="H17">
-        <v>2.496812</v>
-      </c>
-      <c r="I17">
-        <v>0.2156069195948426</v>
-      </c>
-      <c r="J17">
-        <v>0.2156069195948426</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="N17">
-        <v>196.035851</v>
-      </c>
-      <c r="O17">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="P17">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="Q17">
-        <v>54.3849628007791</v>
-      </c>
-      <c r="R17">
-        <v>489.4646652070119</v>
-      </c>
-      <c r="S17">
-        <v>0.2111137522397184</v>
-      </c>
-      <c r="T17">
-        <v>0.2111137522397184</v>
+        <v>0.214131042266643</v>
       </c>
     </row>
   </sheetData>
